--- a/biology/Botanique/Pavot/Pavot.xlsx
+++ b/biology/Botanique/Pavot/Pavot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver
 Papaver est un genre de plantes de la famille des Papaveraceae, originaire des régions tempérées et froides d'Eurasie, d'Afrique et d'Amérique du Nord, qui comprend une cinquantaine d'espèces acceptées (jusqu'à une centaine selon certains auteurs).
@@ -515,19 +527,21 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Papaver sont des plantes herbacées annuelles, bisannuelles ou vivaces, rarement monocarpiques, avec du latex généralement blanc. Les racines sont  fusiformes ou atténuées, simples.
 Les tiges sont dressées ou ascendantes, cylindriques, plus ou moins ramifiées, généralement soyeuses, rarement glabres, Elles excrètent un latex ivoire, malodorant.
 Les feuilles sont plus ou moins découpées, pinnatilobées, pinnatipartites ou bipinnatifides, rarement entières, aux bords dentelés ou crénelés.
 Les feuilles basales sont pétiolées, généralement glauques sur leur face supérieure.
-Les feuilles caulinaires, lorsqu’elles sont présentes, sont généralement sessiles, parfois amplexicaules[2],[3].
+Les feuilles caulinaires, lorsqu’elles sont présentes, sont généralement sessiles, parfois amplexicaules,.
 Les fleurs actinomorphes, pédonculées, sont terminales et solitaires, rarement groupées en grappes cymeuses. Les boutons floraux, nutants, sont  ovoïdes ou sphériques.
 Le calice comprend deux sépales, rarement trois, généralement soyeux, caducs dès l’éclosion de la fleur.
 La corolle comprend quatre pétales souvent caducs et éphémères, rarement cinq ou six, à préfloraison ondulée, parfois superposés, de couleur rouge le plus fréquemment, parfois chez certaines espèces blancs, jaunes, orange ou lavande. De forme obovale, ils sont répartis sur deux verticilles, ceux du verticille externe étant plus grands.
 Les étamines, nombreuses, présentent des filaments blancs, jaunes, verts, violets ou rouges, parfois noirâtres, et des anthères subglobuleuses ou ellipsoïdales.
 L'ovaire, uniloculaire, supère, généralement ovoïde, rarement cylindrique-oblong, résulte de la fusion de 3 à 18 carpelles. Il est dépourvu de style et  présente un disque apical,
-au bord crénelé ou divisé, pourvu de 3 à 18 stigmates radiaux[2],[3].
+au bord crénelé ou divisé, pourvu de 3 à 18 stigmates radiaux,.
 			Feuilles de pavot somnifère (Papaver somniferum).
 			Bouton floral de Papaver argemone.
 			Fleur de pavot des Alpes (papaver alpinum).
@@ -535,7 +549,7 @@
 			Capsule de coquelicot (Papaver rhoeas).
 			Fleur de la famille des pavots dans le Tuinreservaat Jonkervallei, un jardin en Frise (province). Mai 2021.
 Le fruit est une capsule étroitement cylindrique à subglobuleuse, soyeuse ou glabre, rarement épineuse, parfois côtelée, faussement cloisonnée, presque toujours déhiscente par des pores situés sous le disque.
-Les graines, noires, brunes, gris foncé ou blanches, longues de  0,5 à 1,5 mm, sont réniformes, réticulées, plus ou moins alvéolées et sans arille. Elle contiennent un albumen blanc, charnu et riche en huile[3],[2].
+Les graines, noires, brunes, gris foncé ou blanches, longues de  0,5 à 1,5 mm, sont réniformes, réticulées, plus ou moins alvéolées et sans arille. Elle contiennent un albumen blanc, charnu et riche en huile,.
 </t>
         </is>
       </c>
@@ -564,10 +578,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Papaver sont principalement distribuées dans les régions tempérées froides de l'Eurasie (Asie centrale et du sud-ouest, Europe centrale et méridionale) et en Afrique du Nord.
-Font exception la section Papaver sect. Meconella dont la répartition panarctique-alpine inclut le nord-est de l'Amérique du Nord, et les espèces Papaver aculeatum Thunb. (sect. Horrida) indigène de l'Afrique australe, et Papaver californicum A. Gray (sect. Californicum) qui est indigène de l'ouest de l'Amérique du Nord[4].
+Font exception la section Papaver sect. Meconella dont la répartition panarctique-alpine inclut le nord-est de l'Amérique du Nord, et les espèces Papaver aculeatum Thunb. (sect. Horrida) indigène de l'Afrique australe, et Papaver californicum A. Gray (sect. Californicum) qui est indigène de l'ouest de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -596,9 +612,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les traces de plants de pavot somnifère les plus anciennes attestées en Europe datent de plus de quatre mille ans et ont été retrouvées en Suisse[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les traces de plants de pavot somnifère les plus anciennes attestées en Europe datent de plus de quatre mille ans et ont été retrouvées en Suisse.
 </t>
         </is>
       </c>
@@ -629,8 +647,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Les pavots des moissons
-Papaver argemone : Pavot argémone. Assez semblable au coquelicot par sa couleur, mais les pétales ne se chevauchent pas, la capsule est velue.
+          <t>Les pavots des moissons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaver argemone : Pavot argémone. Assez semblable au coquelicot par sa couleur, mais les pétales ne se chevauchent pas, la capsule est velue.
 Papaver dubium : Pavot douteux. Très proche du coquelicot, s'en distingue surtout par sa capsule oblongue.
 Papaver hybridum : Pavot hybride. Lui aussi très voisin du coquelicot, ses pétales sont plus sombres et tachés de noir à la base, sa capsule est velue.
 Papaver rhoeas : Coquelicot.
@@ -638,8 +661,43 @@
 			Capsule de Papaver dubium
 			Papaver hybridum
 			Papaver rhoeas
-Les pavots alpins et nordiques
-Papaver alpinum L. s.l., est une espèce alpine d'Europe moyenne, qu'on rencontre de l'Espagne à la Bulgarie. Elle comporte plusieurs sous-espèces souvent élevées au rang d'espèce :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les pavots alpins et nordiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaver alpinum L. s.l., est une espèce alpine d'Europe moyenne, qu'on rencontre de l'Espagne à la Bulgarie. Elle comporte plusieurs sous-espèces souvent élevées au rang d'espèce :
 subsp. alpinum (Papaver burseri Crantz), le pavot de Burser à fleurs blanches, qu'on rencontre dans les Alpes centrales et orientales
 subsp. kerneri (Hayek) Fedde (Papaver kerneri Hayek), le pavot de Kerner à fleurs jaunes, qu'on rencontre dans les Alpes orientales
 subsp. rhaeticum (Leresche) Nyman (Papaver rhaeticum Leresche, Papaver aurantiacum Loisel.), le pavot doré, pavot orangé ou coquelicot d'or : espèce rencontrée dans les Pyrénées orientales, les Alpes françaises, notamment dans le Vercors, et les Alpes orientales depuis les Grisons. Les fleurs sont jaunes ou orangées, rarement rouges ou blanches.
@@ -661,37 +719,74 @@
 			Papaver nudicaule
 			Papaver nudicaule, exemplaire à fleur rouge
 			Papaver nudicaule, exemplaires à fleurs blanches et jaunes
-Les pavots d'Orient
-Papaver orientale : pavot vivace, dont de nombreuses sélections sont cultivées comme plantes d'ornement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les pavots d'Orient</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Papaver orientale : pavot vivace, dont de nombreuses sélections sont cultivées comme plantes d'ornement.
 Papaver somniferum : pavot somnifère, pavot à opium, pavot. Son latex est à l'origine de l'opium.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pavot</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pavot</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces apparentées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Meconopsis betonicifolia : coquelicot bleu de l'Himalaya, appelé aussi pavot bleu de l'Himalaya.
 Meconopsis cambrica, pavot du Pays de Galles, présent dans le centre et le sud-ouest de la France.
@@ -699,33 +794,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pavot</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pavot</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (29 septembre 2020)[6] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 septembre 2020) :
 Papaver aculeatum Thunb.
 Papaver alboroseum Hultén
 Papaver alpinum L.
@@ -785,78 +882,230 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pavot</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pavot</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Économie et production</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transformation
-Par incision du pavot blanc et, plus largement, de tous les fruits des pavots[réf. nécessaire], on obtient une gomme blanche : l'opium. Celle-ci est transformée en morphine pour un usage médical (elle est aussi un puissant analgésique utilisé sous la forme de chlorhydrate), ou pour un usage illégal (trafic de drogue) dans des laboratoires clandestins. La morphine, peut elle-même être transformée en diacétylmorphine plus connue sous le nom d'héroïne. La Boreprus Tatanum est également un dérivé peu connu du pavot synthétisé à partir du pollen de Menocopsis betonicifolia, cultivé principalement dans les marais de Biélorussie[réf. nécessaire].
-Utilisation
-Les graines de pavot noir servent à la fabrication de l'huile d'œillette utilisée dans la peinture à l'huile.
-Utilisation culinaire
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transformation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par incision du pavot blanc et, plus largement, de tous les fruits des pavots[réf. nécessaire], on obtient une gomme blanche : l'opium. Celle-ci est transformée en morphine pour un usage médical (elle est aussi un puissant analgésique utilisé sous la forme de chlorhydrate), ou pour un usage illégal (trafic de drogue) dans des laboratoires clandestins. La morphine, peut elle-même être transformée en diacétylmorphine plus connue sous le nom d'héroïne. La Boreprus Tatanum est également un dérivé peu connu du pavot synthétisé à partir du pollen de Menocopsis betonicifolia, cultivé principalement dans les marais de Biélorussie[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Économie et production</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines de pavot noir servent à la fabrication de l'huile d'œillette utilisée dans la peinture à l'huile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Économie et production</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Utilisation culinaire</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La graine de pavot, de couleur bleue à noire suivant les variétés, est une petite graine oléagineuse. Ces graines sont incorporées comme ingrédients dans les préparations pâtissières (pains, gâteaux, biscuits, etc.). Elles ont une saveur délicate de noisette ou de pignon et corsent les préparations d'un goût acre selon leur proportion. Les graines blanches ne se montrent pas aussi gustatives mais servent de liant dans la préparation des poudres de carry. En Europe de l'Est, en Pologne, en Autriche ou en Hongrie par exemple, les graines de pavot sont très utilisées pour la production de pâtisseries. Ces graines sont transformées en pâte, laquelle servira à garnir l'intérieur du futur gâteau. Celui-ci est une des pâtisseries nationales de la Hongrie. En Pologne, notamment dans le sud — dans la région minière de Silésie — le pavot est presque systématiquement utilisé dans les pâtisseries.
-Le pavot était nommé chanotte dans la région de Toul. Les cuisinières faisaient la quiche au pavot : après avoir écrasé les graines, on les incorporait à la « migaine ». En raison de leurs vertus apaisantes, les jeunes mamans mettaient également des graines de chanotte dans le biberon des enfants afin de les calmer[7].
+Le pavot était nommé chanotte dans la région de Toul. Les cuisinières faisaient la quiche au pavot : après avoir écrasé les graines, on les incorporait à la « migaine ». En raison de leurs vertus apaisantes, les jeunes mamans mettaient également des graines de chanotte dans le biberon des enfants afin de les calmer.
 Les graines de pavot sont réputées en diététique pour la qualité de leur huile riche en acides gras poly et mono-insaturés, connue sous le nom d'huile d'œillette, ainsi qu'en protéines de type légumineuses.
-Les principes actifs narcotiques de l'opium sont présents à l'état de traces (approximativement 0.005 % de morphine) dans les graines et n'ont pas d'incidence dans son usage alimentaire. Il n'existe pas d'allergie connue ni de contre-indication à la consommation des graines de pavot. Suivant la difficulté à reconnaître empiriquement les effets actifs des graines, même à grande dose, l'encyclopédie de Diderot estimait que les graines de pavot ne contiennent aucune trace de morphinique[8].
+Les principes actifs narcotiques de l'opium sont présents à l'état de traces (approximativement 0.005 % de morphine) dans les graines et n'ont pas d'incidence dans son usage alimentaire. Il n'existe pas d'allergie connue ni de contre-indication à la consommation des graines de pavot. Suivant la difficulté à reconnaître empiriquement les effets actifs des graines, même à grande dose, l'encyclopédie de Diderot estimait que les graines de pavot ne contiennent aucune trace de morphinique.
 Il fait partie des plantes dont la culture est recommandée dans les domaines royaux par Charlemagne dans le capitulaire De Villis (fin du VIIIe ou début du IXe siècle).
-Production
-L'Office des Nations unies contre la drogue et le crime estime que la surface totale de plantations de pavot dans le monde est passé de 223 000 hectares produisant 8 890 tonnes d'opium en 2007 à 181 000 hectares produisant 7 754 tonnes d'opium donnant 657 tonnes d'héroïne en 2009[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Économie et production</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Office des Nations unies contre la drogue et le crime estime que la surface totale de plantations de pavot dans le monde est passé de 223 000 hectares produisant 8 890 tonnes d'opium en 2007 à 181 000 hectares produisant 7 754 tonnes d'opium donnant 657 tonnes d'héroïne en 2009.
 Voici la production légale de pavot :
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pavot</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pavot</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Le langage des fleurs : Pavot : frivolité, plaisir éphémère[réf. nécessaire]
-Calendrier
-Le pavot voyait officiellement son nom attribué au 18e jour du mois de prairial du calendrier républicain / révolutionnaire français[10], généralement chaque 6 juin du calendrier grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pavot</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavot</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pavot voyait officiellement son nom attribué au 18e jour du mois de prairial du calendrier républicain / révolutionnaire français, généralement chaque 6 juin du calendrier grégorien.
 </t>
         </is>
       </c>
